--- a/samples/Excel/layouts (ready to use)/Item Age Composition - Quantity - Dynamic Arrays Example.xlsx
+++ b/samples/Excel/layouts (ready to use)/Item Age Composition - Quantity - Dynamic Arrays Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh.anglesea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCTech\samples\Excel\layouts (ready to use)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55765F18-3EB9-42F3-ACBB-40EBF9082593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D35ACA-910C-45B2-ACBB-871EE5A02479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Report Metadata" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Report!$D$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Report!$A$5:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -562,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +602,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -708,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,32 +865,32 @@
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.17578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.05859375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.05859375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.46875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.17578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.52734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.64453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.17578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="24.29296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2600,25 +2600,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E698D28-8F05-47A2-ABEA-3D263DBC7DC7}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="31.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="28" max="28" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.17578125" customWidth="1"/>
+    <col min="8" max="8" width="12.703125" customWidth="1"/>
+    <col min="25" max="25" width="28.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="str">
         <f>INDEX(Data[],1,1)</f>
         <v>18 September 2023</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2628,12 +2628,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="str">
         <f>INDEX(Data[],1,2)</f>
         <v>CRONUS UK Ltd.</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="E2" s="8" t="str">
         <f>INDEX(Data[],1,3)</f>
         <v xml:space="preserve">Item: </v>
       </c>
@@ -2644,725 +2644,725 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G5" s="8" t="str">
+    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="8" t="str">
         <f>INDEX(Data[],1,5)</f>
         <v>30/01/20</v>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="E4" s="8" t="str">
         <f>INDEX(Data[],1,7)</f>
         <v>01/03/20</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="F4" s="8" t="str">
         <f>INDEX(Data[],1,9)</f>
         <v>31/03/20</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="10" t="s">
+    <row r="5" spans="1:27" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="8" t="str">
+      <c r="C5" s="8" t="str">
         <f>INDEX(Data[],1,16)</f>
         <v>...Before</v>
       </c>
-      <c r="G6" s="8" t="str">
+      <c r="D5" s="8" t="str">
         <f>INDEX(Data[],1,6)</f>
         <v>29/02/20</v>
       </c>
-      <c r="H6" s="8" t="str">
+      <c r="E5" s="8" t="str">
         <f>INDEX(Data[],1,8)</f>
         <v>30/03/20</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="F5" s="8" t="str">
         <f>INDEX(Data[],1,10)</f>
         <v>30/04/20</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="G5" s="8" t="str">
         <f>INDEX(Data[],1,15)</f>
         <v>After...</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" t="str" cm="1">
-        <f t="array" ref="AB6:AB31">TRANSPOSE(Data[#Headers])</f>
+      <c r="Y5" t="str" cm="1">
+        <f t="array" ref="Y5:Y30">TRANSPOSE(Data[#Headers])</f>
         <v>TodayFormatted</v>
       </c>
-      <c r="AC6" cm="1">
-        <f t="array" ref="AC6:AC31">TRANSPOSE(COLUMN(Data[]))</f>
+      <c r="Z5" cm="1">
+        <f t="array" ref="Z5:Z30">TRANSPOSE(COLUMN(Data[]))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D7" t="str" cm="1">
-        <f t="array" ref="D7:D20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC16)</f>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A6" t="str" cm="1">
+        <f t="array" ref="A6:A19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z15)</f>
         <v>1896-S</v>
       </c>
-      <c r="E7" t="str" cm="1">
-        <f t="array" ref="E7:E20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC17)</f>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:B19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z16)</f>
         <v>ATHENS Desk</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7:F20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC25)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7:G20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC26)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" cm="1">
-        <f t="array" ref="H7:H20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC26)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" cm="1">
-        <f t="array" ref="I7:I20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC27)</f>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6:C19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6:D19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6:E19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z25)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6:F19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z26)</f>
         <v>4</v>
       </c>
-      <c r="J7" cm="1">
-        <f t="array" ref="J7:J20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC28)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" cm="1">
-        <f t="array" ref="K7:K20">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AD33),_xlfn.ANCHORARRAY(AC33)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$AC30)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6:G19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z27)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6:H19">INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Data[],Data[PrintLine]=TRUE,"No Records"),_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(AA32),_xlfn.ANCHORARRAY(Z32)=$G$2,"No Recs"),IF($H$2="Descending",-1,1)),,$Z29)</f>
         <v>4</v>
       </c>
-      <c r="AB7" s="5" t="str">
+      <c r="Y6" s="5" t="str">
         <v>CompanyName</v>
       </c>
-      <c r="AC7">
+      <c r="Z6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D8" t="str">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A7" t="str">
         <v>1906-S</v>
       </c>
-      <c r="E8" t="str">
+      <c r="B7" t="str">
         <v>ATHENS Mobile Pedestal</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="5" t="str">
+        <v>TblCptnItemFilter</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A8" t="str">
+        <v>1908-S</v>
+      </c>
+      <c r="B8" t="str">
+        <v>LONDON Swivel Chair, blue</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="5" t="str">
+        <v>ItemFilter</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A9" t="str">
+        <v>1920-S</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ANTWERP Conference Table</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="5" t="str">
+        <v>Item2PeriodStartDate</v>
+      </c>
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="5" t="str">
-        <v>TblCptnItemFilter</v>
-      </c>
-      <c r="AC8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D9" t="str">
-        <v>1908-S</v>
-      </c>
-      <c r="E9" t="str">
-        <v>LONDON Swivel Chair, blue</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="5" t="str">
-        <v>ItemFilter</v>
-      </c>
-      <c r="AC9">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A10" t="str">
+        <v>1928-S</v>
+      </c>
+      <c r="B10" t="str">
+        <v>AMSTERDAM Lamp</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <v>Item3PeriodStartDate</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A11" t="str">
+        <v>1936-S</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BERLIN Guest Chair, yellow</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="5" t="str">
+        <v>Item31PeriodStartDate</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A12" t="str">
+        <v>1953-W</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Guest Section 1</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-47</v>
+      </c>
+      <c r="E12">
+        <v>-47</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-49</v>
+      </c>
+      <c r="Y12" s="5" t="str">
+        <v>Item4PeriodStartDate</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A13" t="str">
+        <v>1960-S</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ROME Guest Chair, green</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D10" t="str">
-        <v>1920-S</v>
-      </c>
-      <c r="E10" t="str">
-        <v>ANTWERP Conference Table</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="5" t="str">
+        <v>Item41PeriodStartDate</v>
+      </c>
+      <c r="Z13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A14" t="str">
+        <v>1964-S</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TOKYO Guest Chair, blue</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="Y14" s="5" t="str">
+        <v>Item5PeriodStartDate</v>
+      </c>
+      <c r="Z14">
         <v>10</v>
       </c>
-      <c r="AB10" s="5" t="str">
-        <v>Item2PeriodStartDate</v>
-      </c>
-      <c r="AC10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D11" t="str">
-        <v>1928-S</v>
-      </c>
-      <c r="E11" t="str">
-        <v>AMSTERDAM Lamp</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A15" t="str">
+        <v>1965-W</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Conference Bundle 2-8</v>
+      </c>
+      <c r="C15">
+        <v>-78</v>
+      </c>
+      <c r="D15">
+        <v>-3</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-81</v>
+      </c>
+      <c r="X15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="5" t="str">
+        <v>No_Item</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A16" t="str">
+        <v>1968-S</v>
+      </c>
+      <c r="B16" t="str">
+        <v>MEXICO Swivel Chair, black</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="X16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="5" t="str">
+        <v>Desc_Item</v>
+      </c>
+      <c r="Z16">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A17" t="str">
+        <v>1969-W</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Conference Package 1</v>
+      </c>
+      <c r="C17">
+        <v>-7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-7</v>
+      </c>
+      <c r="Y17" s="5" t="str">
+        <v>ItemAgeCompositionQtyCaption</v>
+      </c>
+      <c r="Z17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A18" t="str">
+        <v>1996-S</v>
+      </c>
+      <c r="B18" t="str">
+        <v>ATLANTA Whiteboard, base</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="5" t="str">
+        <v>PageNoCaption</v>
+      </c>
+      <c r="Z18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A19" t="str">
+        <v>2000-S</v>
+      </c>
+      <c r="B19" t="str">
+        <v>SYDNEY Swivel Chair, green</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>8</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="AB11" s="5" t="str">
-        <v>Item3PeriodStartDate</v>
-      </c>
-      <c r="AC11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D12" t="str">
-        <v>1936-S</v>
-      </c>
-      <c r="E12" t="str">
-        <v>BERLIN Guest Chair, yellow</v>
-      </c>
-      <c r="F12">
-        <v>76</v>
-      </c>
-      <c r="G12">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="5" t="str">
+        <v>AfterCaption</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Y20" s="5" t="str">
+        <v>BeforeCaption</v>
+      </c>
+      <c r="Z20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Y21" s="5" t="str">
+        <v>TotalInvtQtyCaption</v>
+      </c>
+      <c r="Z21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Y22" s="5" t="str">
+        <v>ItemDescriptionCaption</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Y23" s="5" t="str">
+        <v>ItemNoCaption</v>
+      </c>
+      <c r="Z23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X24" t="str">
+        <f>"Before"&amp;"  "&amp;TEXT(I$7,"MMM-YY")</f>
+        <v>Before  Jan-YY</v>
+      </c>
+      <c r="Y24" s="6" t="str">
+        <v>InvtQty1_ItemLedgEntry</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X25" t="str">
+        <f>TEXT(I$7,"MMM-YY")&amp;" to "&amp;TEXT(I$8,"MMM-YY")</f>
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="Y25" s="6" t="str">
+        <v>InvtQty2_ItemLedgEntry</v>
+      </c>
+      <c r="Z25">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X26" t="str">
+        <f>TEXT(J$7,"MMM-YY")&amp;" to "&amp;TEXT(J$8,"MMM-YY")</f>
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <v>InvtQty3_ItemLedgEntry</v>
+      </c>
+      <c r="Z26">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X27" t="str">
+        <f>TEXT(K$7,"MMM-YY")&amp;" to "&amp;TEXT(K$8,"MMM-YY")</f>
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <v>InvtQty4_ItemLedgEntry</v>
+      </c>
+      <c r="Z27">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X28" t="str">
+        <f>"After"&amp;"  "&amp;TEXT(K$8,"MMM-YY")</f>
+        <v>After  Jan-YY</v>
+      </c>
+      <c r="Y28" s="6" t="str">
+        <v>InvtQty5_ItemLedgEntry</v>
+      </c>
+      <c r="Z28">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="X29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y29" s="6" t="str">
+        <v>TotalInvtQty</v>
+      </c>
+      <c r="Z29">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Y30" s="7" t="str">
+        <v>PrintLine</v>
+      </c>
+      <c r="Z30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="Z32" t="str" cm="1">
+        <f t="array" ref="Z32:Z39">_xlfn._xlws.FILTER(_xlfn.UNIQUE(X4:X29,TRUE,TRUE),AA4:AA29=TRUE)</f>
+        <v>Item #</v>
+      </c>
+      <c r="AA32" cm="1">
+        <f t="array" ref="AA32:AA39">_xlfn._xlws.FILTER(_xlfn.UNIQUE(Z4:Z29,TRUE,TRUE),AA4:AA29=TRUE)</f>
         <v>11</v>
       </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="5" t="str">
-        <v>Item31PeriodStartDate</v>
-      </c>
-      <c r="AC12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D13" t="str">
-        <v>1953-W</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Guest Section 1</v>
-      </c>
-      <c r="F13">
-        <v>-2</v>
-      </c>
-      <c r="G13">
-        <v>-47</v>
-      </c>
-      <c r="H13">
-        <v>-47</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>-49</v>
-      </c>
-      <c r="AB13" s="5" t="str">
-        <v>Item4PeriodStartDate</v>
-      </c>
-      <c r="AC13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D14" t="str">
-        <v>1960-S</v>
-      </c>
-      <c r="E14" t="str">
-        <v>ROME Guest Chair, green</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="5" t="str">
-        <v>Item41PeriodStartDate</v>
-      </c>
-      <c r="AC14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D15" t="str">
-        <v>1964-S</v>
-      </c>
-      <c r="E15" t="str">
-        <v>TOKYO Guest Chair, blue</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="5" t="str">
-        <v>Item5PeriodStartDate</v>
-      </c>
-      <c r="AC15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D16" t="str">
-        <v>1965-W</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Conference Bundle 2-8</v>
-      </c>
-      <c r="F16">
-        <v>-78</v>
-      </c>
-      <c r="G16">
-        <v>-3</v>
-      </c>
-      <c r="H16">
-        <v>-3</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>-81</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB16" s="5" t="str">
-        <v>No_Item</v>
-      </c>
-      <c r="AC16">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="D17" t="str">
-        <v>1968-S</v>
-      </c>
-      <c r="E17" t="str">
-        <v>MEXICO Swivel Chair, black</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB17" s="5" t="str">
-        <v>Desc_Item</v>
-      </c>
-      <c r="AC17">
+    </row>
+    <row r="33" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z33" t="str">
+        <v>Description</v>
+      </c>
+      <c r="AA33">
         <v>12</v>
       </c>
-      <c r="AD17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="D18" t="str">
-        <v>1969-W</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Conference Package 1</v>
-      </c>
-      <c r="F18">
-        <v>-7</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>-7</v>
-      </c>
-      <c r="AB18" s="5" t="str">
-        <v>ItemAgeCompositionQtyCaption</v>
-      </c>
-      <c r="AC18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="D19" t="str">
-        <v>1996-S</v>
-      </c>
-      <c r="E19" t="str">
-        <v>ATLANTA Whiteboard, base</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>10</v>
-      </c>
-      <c r="AB19" s="5" t="str">
-        <v>PageNoCaption</v>
-      </c>
-      <c r="AC19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="D20" t="str">
-        <v>2000-S</v>
-      </c>
-      <c r="E20" t="str">
-        <v>SYDNEY Swivel Chair, green</v>
-      </c>
-      <c r="F20">
+    </row>
+    <row r="34" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z34" t="str">
+        <v>Before  Jan-YY</v>
+      </c>
+      <c r="AA34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z35" t="str">
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="AA35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z36" t="str">
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="AA36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z37" t="str">
+        <v>Jan-YY to Jan-YY</v>
+      </c>
+      <c r="AA37">
         <v>23</v>
       </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>38</v>
-      </c>
-      <c r="AB20" s="5" t="str">
-        <v>AfterCaption</v>
-      </c>
-      <c r="AC20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AB21" s="5" t="str">
-        <v>BeforeCaption</v>
-      </c>
-      <c r="AC21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AB22" s="5" t="str">
-        <v>TotalInvtQtyCaption</v>
-      </c>
-      <c r="AC22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AB23" s="5" t="str">
-        <v>ItemDescriptionCaption</v>
-      </c>
-      <c r="AC23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AB24" s="5" t="str">
-        <v>ItemNoCaption</v>
-      </c>
-      <c r="AC24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA25" t="str">
-        <f>"Before"&amp;"  "&amp;TEXT(L$8,"MMM-YY")</f>
-        <v>Before  Jan-00</v>
-      </c>
-      <c r="AB25" s="6" t="str">
-        <v>InvtQty1_ItemLedgEntry</v>
-      </c>
-      <c r="AC25">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA26" t="str">
-        <f>TEXT(L$8,"MMM-YY")&amp;" to "&amp;TEXT(L$9,"MMM-YY")</f>
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AB26" s="6" t="str">
-        <v>InvtQty2_ItemLedgEntry</v>
-      </c>
-      <c r="AC26">
-        <v>21</v>
-      </c>
-      <c r="AD26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA27" t="str">
-        <f>TEXT(M$8,"MMM-YY")&amp;" to "&amp;TEXT(M$9,"MMM-YY")</f>
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AB27" s="6" t="str">
-        <v>InvtQty3_ItemLedgEntry</v>
-      </c>
-      <c r="AC27">
-        <v>22</v>
-      </c>
-      <c r="AD27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA28" t="str">
-        <f>TEXT(N$8,"MMM-YY")&amp;" to "&amp;TEXT(N$9,"MMM-YY")</f>
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AB28" s="6" t="str">
-        <v>InvtQty4_ItemLedgEntry</v>
-      </c>
-      <c r="AC28">
-        <v>23</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA29" t="str">
-        <f>"After"&amp;"  "&amp;TEXT(N$9,"MMM-YY")</f>
-        <v>After  Jan-00</v>
-      </c>
-      <c r="AB29" s="6" t="str">
-        <v>InvtQty5_ItemLedgEntry</v>
-      </c>
-      <c r="AC29">
+    </row>
+    <row r="38" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z38" t="str">
+        <v>After  Jan-YY</v>
+      </c>
+      <c r="AA38">
         <v>24</v>
       </c>
-      <c r="AD29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AA30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB30" s="6" t="str">
-        <v>TotalInvtQty</v>
-      </c>
-      <c r="AC30">
+    </row>
+    <row r="39" spans="26:27" x14ac:dyDescent="0.5">
+      <c r="Z39" t="str">
+        <v>Total Qty. Change</v>
+      </c>
+      <c r="AA39">
         <v>25</v>
       </c>
-      <c r="AD30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.35">
-      <c r="AB31" s="7" t="str">
-        <v>PrintLine</v>
-      </c>
-      <c r="AC31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC33" t="str" cm="1">
-        <f t="array" ref="AC33:AC40">_xlfn._xlws.FILTER(_xlfn.UNIQUE(AA5:AA30,TRUE,TRUE),AD5:AD30=TRUE)</f>
-        <v>Item #</v>
-      </c>
-      <c r="AD33" cm="1">
-        <f t="array" ref="AD33:AD40">_xlfn._xlws.FILTER(_xlfn.UNIQUE(AC5:AC30,TRUE,TRUE),AD5:AD30=TRUE)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC34" t="str">
-        <v>Description</v>
-      </c>
-      <c r="AD34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC35" t="str">
-        <v>Before  Jan-00</v>
-      </c>
-      <c r="AD35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC36" t="str">
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AD36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC37" t="str">
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AD37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC38" t="str">
-        <v>Jan-00 to Jan-00</v>
-      </c>
-      <c r="AD38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC39" t="str">
-        <v>After  Jan-00</v>
-      </c>
-      <c r="AD39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="29:30" x14ac:dyDescent="0.35">
-      <c r="AC40" t="str">
-        <v>Total Qty. Change</v>
-      </c>
-      <c r="AD40">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D6:E6" xr:uid="{5E698D28-8F05-47A2-ABEA-3D263DBC7DC7}"/>
-  <conditionalFormatting sqref="K1:K1048576">
+  <autoFilter ref="A5:B5" xr:uid="{5E698D28-8F05-47A2-ABEA-3D263DBC7DC7}"/>
+  <conditionalFormatting sqref="H3:H1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3376,12 +3376,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{3A52C0CE-D702-4ADE-A9ED-6D9F57FB1781}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3 H2" xr:uid="{3A52C0CE-D702-4ADE-A9ED-6D9F57FB1781}">
       <formula1>"Ascending,Descending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5F41ADCF-C1CB-4FE2-87A5-218BC8DBB720}">
-      <formula1>_xlfn.ANCHORARRAY($AC$33)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 G2" xr:uid="{5F41ADCF-C1CB-4FE2-87A5-218BC8DBB720}">
+      <formula1>_xlfn.ANCHORARRAY($Z$32)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,7 +3405,23 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G1:G3 G5:G6</xm:sqref>
+          <xm:sqref>D3:D5 G1:G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{89C7BC59-97AB-4893-8B3A-3BB277F3149A}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D3:F1048576 G1:H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{F1C75F47-F852-4C93-9E58-A891D9164EB6}">
@@ -3424,7 +3440,18 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H5:I6 J6</xm:sqref>
+          <xm:sqref>E4:F5 G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A007F16A-90F6-4D94-8F19-44DD354EAF3C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{7CBF8F57-DE4F-4E67-B4B6-2A8EA917EA3A}">
@@ -3443,34 +3470,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A007F16A-90F6-4D94-8F19-44DD354EAF3C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K1:K1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{89C7BC59-97AB-4893-8B3A-3BB277F3149A}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>G1:I1048576</xm:sqref>
+          <xm:sqref>H5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3484,7 +3484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="50"/>
     <col min="2" max="3" width="30"/>
@@ -3492,7 +3492,7 @@
     <col min="5" max="5" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3614,4 +3614,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>